--- a/players.xlsx
+++ b/players.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48BE9C6-FCA0-4C8F-9101-E0ABB7975668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BC5BC9-EFE8-4CE5-BDE7-1D80354F6042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80900755-6583-4F7B-90B0-957C0A061925}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1570972F-5532-4DFC-B1BE-030683BC06F9}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,7 @@
         <v>201</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D31" si="0">B2 - C2</f>
+        <f t="shared" ref="D2:D32" si="0">B2 - C2</f>
         <v>439</v>
       </c>
     </row>
@@ -969,6 +969,16 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="B32">
+        <v>840</v>
+      </c>
+      <c r="C32">
+        <v>502</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/players.xlsx
+++ b/players.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\Praca inz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BC5BC9-EFE8-4CE5-BDE7-1D80354F6042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BDBC3C-BEB4-4C2C-9116-BEDC5B30048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80900755-6583-4F7B-90B0-957C0A061925}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>94/95</t>
   </si>
   <si>
-    <t>england</t>
-  </si>
-  <si>
     <t>95/96</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>22/23</t>
+  </si>
+  <si>
+    <t>english</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1570972F-5532-4DFC-B1BE-030683BC06F9}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>647</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>608</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>690</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>695</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>702</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>738</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>696</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>712</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>675</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>663</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>721</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>740</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>735</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>752</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>754</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>738</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>735</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>760</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>746</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>794</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>782</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>737</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>769</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>774</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>800</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>804</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>840</v>
